--- a/data/trans_dic/P19E_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 29,71</t>
+          <t>20,42; 29,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,36; 19,82</t>
+          <t>12,87; 19,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 17,59</t>
+          <t>10,51; 18,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,46</t>
+          <t>6,43; 11,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,03; 22,92</t>
+          <t>16,9; 23,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,9</t>
+          <t>10,86; 14,89</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,69; 28,77</t>
+          <t>19,53; 28,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 26,26</t>
+          <t>17,59; 25,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 20,8</t>
+          <t>12,52; 20,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,04</t>
+          <t>8,79; 14,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 23,23</t>
+          <t>17,08; 23,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 19,51</t>
+          <t>14,39; 19,54</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,48; 39,49</t>
+          <t>30,9; 39,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 30,31</t>
+          <t>6,56; 30,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 27,07</t>
+          <t>13,58; 26,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 19,41</t>
+          <t>11,4; 19,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,72; 34,93</t>
+          <t>27,63; 34,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 26,06</t>
+          <t>7,24; 25,99</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,3; 42,04</t>
+          <t>36,5; 42,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,49; 34,51</t>
+          <t>28,31; 34,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,83</t>
+          <t>16,72; 22,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,38</t>
+          <t>5,28; 14,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,07; 33,3</t>
+          <t>29,05; 33,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 24,72</t>
+          <t>15,29; 24,3</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,94; 48,49</t>
+          <t>39,54; 47,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,29; 40,29</t>
+          <t>31,28; 40,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,82; 33,86</t>
+          <t>26,98; 33,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 26,12</t>
+          <t>16,66; 25,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,93; 39,24</t>
+          <t>33,96; 39,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,79; 30,09</t>
+          <t>22,32; 29,95</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,07; 30,83</t>
+          <t>19,57; 30,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 14,82</t>
+          <t>4,02; 14,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,18; 32,9</t>
+          <t>26,83; 32,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 23,45</t>
+          <t>18,71; 23,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,37; 31,57</t>
+          <t>26,17; 31,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,61; 20,11</t>
+          <t>15,74; 20,13</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,1; 36,34</t>
+          <t>33,14; 36,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,37; 26,68</t>
+          <t>18,73; 26,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,45; 25,47</t>
+          <t>22,41; 25,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 17,01</t>
+          <t>12,73; 17,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,05; 30,38</t>
+          <t>28,19; 30,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 21,21</t>
+          <t>17,12; 21,3</t>
         </is>
       </c>
     </row>
@@ -1171,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se cepilla los dientes una o ninguna vez al día</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>105462</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>81964</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47072</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>37936</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>152534</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>119901</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>86333; 125080</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>64917; 99499</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36186; 62635</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28725; 50143</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>129614; 177720</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>103279; 141662</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>88224</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>97866</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59740</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>42302</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>147963</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>140167</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>71516; 104216</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>79461; 116574</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46114; 75501</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33580; 54363</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>125435; 170266</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>120010; 162895</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>178668</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>122355</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24554</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>210532</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>146909</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>157451; 199996</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43624; 202352</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22144; 43030</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18946; 32382</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>185805; 233690</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60179; 215990</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>438916</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>323457</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>158337</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>104724</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>597253</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>428181</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>405773; 470647</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>290880; 357516</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>134857; 181498</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>51571; 139887</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>557324; 636916</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>306434; 487106</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>262934</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>167972</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>218067</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>186671</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>354644</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>236531; 285899</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>147854; 192320</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>195193; 245479</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>139227; 215712</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>448927; 517111</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>291951; 391835</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>70425</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18963</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>310479</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>156330</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>380904</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>175293</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>54970; 86939</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9666; 34037</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>278835; 340643</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>140196; 177846</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>345461; 416529</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>155812; 199287</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1144628</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>812578</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>825559</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>552518</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1970187</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1365095</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1090006; 1195782</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>629580; 892709</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>771938; 870675</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>452983; 604821</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1898255; 2048089</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1184234; 1473628</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19E_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Clase-trans_dic.xlsx
@@ -992,7 +992,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
